--- a/Word/log/log_201608040204_yangmanzhen.xlsx
+++ b/Word/log/log_201608040204_yangmanzhen.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\compmgr\Word\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>日期</t>
   </si>
@@ -187,19 +192,41 @@
   </si>
   <si>
     <t>完善成功</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加dao层的测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新项目dao层的实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为有清晰的规划，所以实体属性的创建很成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试成功，在学习spring注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,345 +235,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -554,311 +257,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1145,19 +562,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1165,7 +582,7 @@
     <col min="4" max="4" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="46" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43229</v>
       </c>
@@ -1193,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43232</v>
       </c>
@@ -1207,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43233</v>
       </c>
@@ -1221,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43234</v>
       </c>
@@ -1235,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1249,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43245</v>
       </c>
@@ -1263,7 +680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43252</v>
       </c>
@@ -1277,7 +694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43253</v>
       </c>
@@ -1291,7 +708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43257</v>
       </c>
@@ -1305,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43261</v>
       </c>
@@ -1319,7 +736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43264</v>
       </c>
@@ -1333,7 +750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43265</v>
       </c>
@@ -1347,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43270</v>
       </c>
@@ -1361,7 +778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43271</v>
       </c>
@@ -1375,7 +792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43272</v>
       </c>
@@ -1389,7 +806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>43273</v>
       </c>
@@ -1403,7 +820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>43276</v>
       </c>
@@ -1417,7 +834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>43277</v>
       </c>
@@ -1431,7 +848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>43278</v>
       </c>
@@ -1445,7 +862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>43279</v>
       </c>
@@ -1459,7 +876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>43280</v>
       </c>
@@ -1473,7 +890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>43283</v>
       </c>
@@ -1487,7 +904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>43284</v>
       </c>
@@ -1501,12 +918,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>43285</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
@@ -1515,49 +932,65 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>43315</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Word/log/log_201608040204_yangmanzhen.xlsx
+++ b/Word/log/log_201608040204_yangmanzhen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -218,7 +218,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>18:30-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加dao层的测试类，包括增删查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试成功，在学习spring注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试成功，继续学习spring注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,11 +969,22 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>43318</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Word/log/log_201608040204_yangmanzhen.xlsx
+++ b/Word/log/log_201608040204_yangmanzhen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>测试成功，继续学习spring注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加service层的接口 实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加service测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，继续学习spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,6 +1008,34 @@
       </c>
       <c r="D28" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>43321</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>43324</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
